--- a/similarities/split_global/harmonic_similarity_timestamps_183.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_183.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>isophonics_166</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:04:11.500000', '0:04:17.660000'), ('0:00:24.180000', '0:00:30.020000'), ('0:00:09.240000', '0:00:12.560000')]</t>
+          <t>('0:00:46.560000', '0:00:49.080000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:17.720000', '0:01:28'), ('0:00:46.520000', '0:00:48.940000'), ('0:01:39.600000', '0:01:51.620000')]</t>
+          <t>('0:00:17.839297', '0:00:30.215532')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=251.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=24.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=9.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=46.56</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=77.72', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=46.52', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=99.6']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-166#t=17.839297</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>schubert-winterreise_29</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['A#:min', 'F:7/C', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:10.260000', '0:00:24.700000')]</t>
+          <t>('0:00:00.800000', '0:00:02.880000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:47.020000', '0:00:55.760000')]</t>
+          <t>('0:00:24.680000', '0:00:31.240000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=10.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=0.8</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=47.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=24.68</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_207</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['A#/F', 'F:7', 'A#']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['E', 'B:7', 'E']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
+          <t>('0:04:31.220000', '0:04:38.420000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:15.560000', '0:01:35.680000')]</t>
+          <t>('0:01:01.683832', '0:01:05.956303')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=31.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=75.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=61.683832</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'C:7']]</t>
+          <t>['B:7', 'E', 'B:7', 'E']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'B:7']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:11.560000', '0:01:15.440000')]</t>
+          <t>('0:01:03.474331', '0:01:11.056785')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:44.354195', '0:01:53.665396')]</t>
+          <t>('0:01:22.070000', '0:01:30.900000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=71.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=63.474331</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=104.354195']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=82.07</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>schubert-winterreise_19</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:42.150000', '0:01:07.840000')]</t>
+          <t>('0:00:00.360000', '0:00:05')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:14.700000', '0:01:27.040000')]</t>
+          <t>('0:00:43.180000', '0:00:45.100000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=42.15']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=0.36</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=74.7']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=43.18</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_12</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D/5', 'A/3', 'D']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:00.340000', '0:00:17.940000')]</t>
+          <t>('0:00:03.320000', '0:00:08.680000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:21.740249', '0:00:26.767369')]</t>
+          <t>('0:01:14.500000', '0:01:20.420000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=0.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=3.32</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-12#t=21.740249']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=74.5</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>isophonics_236</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['F:maj', 'C:maj/G', 'F:maj/A']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:06.590000', '0:00:14.660000')]</t>
+          <t>('0:00:11.820000', '0:00:17.361000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:14.400000', '0:01:26.060000')]</t>
+          <t>('0:02:00', '0:02:02.700000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=11.82</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=74.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=120.0</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['Bb:7', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>['Bb:7', 'Eb:7', 'Ab:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:00.660000', '0:00:02.680000')]</t>
+          <t>('0:00:23.910000', '0:00:25.870000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:19.440000', '0:00:28.300000')]</t>
+          <t>('0:00:37.633000', '0:00:41.753000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=0.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=23.91</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=19.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=37.633</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:16.340000', '0:00:44.360000')]</t>
+          <t>('0:01:12.820000', '0:01:24.380000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:12.500000', '0:01:33.840000')]</t>
+          <t>('0:04:14.260000', '0:04:20.200000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=16.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=72.82</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=72.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=254.26</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:52.140000', '0:01:54.760000')]</t>
+          <t>('0:00:08.180000', '0:00:13.260000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:32.080000', '0:00:45.580000')]</t>
+          <t>('0:00:15.060000', '0:00:23.160000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=112.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=8.18</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=32.08']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=15.06</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>jaah_58</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
+          <t>['C:min7', 'F:7', 'Bb:maj6']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['F:min7', 'Bb:7', 'Eb:maj6']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:03:58.720000', '0:04:14.260000')]</t>
+          <t>('0:00:22.850000', '0:00:26.110000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:19.360000', '0:00:23.020000')]</t>
+          <t>('0:00:01.010000', '0:00:02.260000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=238.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=22.85</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=19.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-58#t=1.01</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:min', 'G:min/D', 'D:7', 'G:min'], ['A#:maj', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:min', 'C:min/G', 'G:7', 'C:min'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:45.940000', '0:00:59.040000'), ('0:00:38.940000', '0:00:49')]</t>
+          <t>('0:00:27', '0:00:56.920000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:21.860000', '0:00:28.920000'), ('0:01:04.420000', '0:01:09.700000')]</t>
+          <t>('0:01:40.240000', '0:01:42.380000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=45.94', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=38.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=27.0</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=21.86', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=64.42']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=100.24</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A', 'A:7', 'D']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:04.871315', '0:01:12.777709')]</t>
+          <t>('0:00:44.760000', '0:00:48.460000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:19.060000', '0:00:30.080000')]</t>
+          <t>('0:00:08.340000', '0:00:10.800000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=64.871315']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=44.76</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=19.06']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=8.34</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>jaah_80</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'A:maj']]</t>
+          <t>['C:7', 'F', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Ab']]</t>
+          <t>['Bb:7', 'Eb', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:53.520000', '0:00:59.340000')]</t>
+          <t>('0:00:21.410000', '0:00:26.860000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:33.270000', '0:01:42.970000')]</t>
+          <t>('0:00:16.540000', '0:00:37.670000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=53.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=21.41</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=93.27']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=16.54</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>isophonics_221</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>isophonics_59</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
+          <t>['C', 'F/5', 'C', 'C/7']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['G', 'C', 'G', 'G:maj(*1)/5']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:12.680000', '0:00:20.200000')]</t>
+          <t>('0:00:05.121000', '0:00:13.333000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:24.820000', '0:00:59.740000')]</t>
+          <t>('0:00:44.728004', '0:00:53.981156')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=12.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=24.82']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=44.728004</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
